--- a/hardware/hardware/bom/MCB19.xlsx
+++ b/hardware/hardware/bom/MCB19.xlsx
@@ -742,7 +742,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Thu Aug 13 03:27:27 2020</t>
+    <t>Thu Aug 13 03:59:17 2020</t>
   </si>
   <si>
     <t>Schematic Source:</t>
